--- a/biology/Zoologie/Dasia/Dasia.xlsx
+++ b/biology/Zoologie/Dasia/Dasia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dasia est un genre de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dasia est un genre de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les neuf espèces de ce genre se rencontrent en Asie du Sud-Est et en Asie du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les neuf espèces de ce genre se rencontrent en Asie du Sud-Est et en Asie du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces scinques sont ovipares[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces scinques sont ovipares.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils se nourrissent d'insectes et d'araignées.
 </t>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (27 mars 2015)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (27 mars 2015) :
 Dasia griffini Taylor, 1915
 Dasia grisea (Gray, 1845)
 Dasia haliana (Haly &amp; Nevill, 1887)
@@ -644,7 +664,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Edeling, 1865 "1864" : Recherches sur la faune erpétologique de Bornéo. Nederlandsch Tijdschrift voor De Dierkunde, vol. 2, p. 200-204 (texte intégral).
 Gray, 1839 "1838" : Catalogue of the slender-tongued saurians, with descriptions of many new genera and species. Annals and Magazine of Natural History, sér. 1, vol. 2, p. 331-337 (texte intégral).</t>
